--- a/biology/Botanique/Angelica_atropurpurea/Angelica_atropurpurea.xlsx
+++ b/biology/Botanique/Angelica_atropurpurea/Angelica_atropurpurea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Angélique pourpre
-Angelica atropurpurea, l’Angélique pourpre, est une espèce de plantes à fleurs de la famille des Apiaceae[1].
+Angelica atropurpurea, l’Angélique pourpre, est une espèce de plantes à fleurs de la famille des Apiaceae.
 </t>
         </is>
       </c>
@@ -512,11 +524,13 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le nom correct complet (avec auteur) de ce taxon est Angelica atropurpurea L., 1753[2].
-Ce taxon porte en français les noms vernaculaires ou normalisés suivants : Angélique pourpre[3],[4], Angélique noire-pourprée[3], Angélique pourpre foncé[3], Angélique pourpre sombre[5], Grande angélique[4].
-Angelica atropurpurea a pour synonymes[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le nom correct complet (avec auteur) de ce taxon est Angelica atropurpurea L., 1753.
+Ce taxon porte en français les noms vernaculaires ou normalisés suivants : Angélique pourpre Angélique noire-pourprée, Angélique pourpre foncé, Angélique pourpre sombre, Grande angélique.
+Angelica atropurpurea a pour synonymes :
 Angelica atropurpurea var. atropurpurea
 Angelica atropurpurea var. occidentalis Fassett
 Angelica laurentiana Fernald
@@ -549,9 +563,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette plante se rencontre aux États-Unis et au Canada[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette plante se rencontre aux États-Unis et au Canada.
 </t>
         </is>
       </c>
